--- a/processFiles/1.xlsx
+++ b/processFiles/1.xlsx
@@ -1162,8 +1162,8 @@
   </sheetPr>
   <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E111" activeCellId="0" sqref="E111"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1268,7 +1268,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>4</v>
@@ -1408,7 +1408,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>4</v>
@@ -1488,7 +1488,7 @@
         <v>50</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="114" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="128.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>59</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>0</v>
@@ -1668,13 +1668,13 @@
         <v>77</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="242.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="256.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>80</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>2</v>
@@ -1728,7 +1728,7 @@
         <v>86</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>122</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="2" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>128</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="2" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>146</v>
       </c>
       <c r="E48" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="6" t="n">
         <v>3</v>
@@ -2148,7 +2148,7 @@
         <v>149</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="5" t="n">
         <v>4</v>
@@ -2294,7 +2294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="313.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="342" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>56</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>173</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="2" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>176</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="2" t="n">
         <v>0</v>
@@ -2548,7 +2548,7 @@
         <v>209</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="2" t="n">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>212</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" s="2" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>236</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" s="1" t="n">
         <v>4</v>
@@ -2748,7 +2748,7 @@
         <v>239</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" s="1" t="n">
         <v>4</v>
@@ -2834,7 +2834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="156.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <v>83</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>254</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" s="2" t="n">
         <v>0</v>
@@ -2868,7 +2868,7 @@
         <v>257</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" s="2" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>281</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" s="2" t="n">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>284</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" s="2" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>290</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" s="2" t="n">
         <v>0</v>
@@ -3114,7 +3114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="171" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="185.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
         <v>97</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>296</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" s="2" t="n">
         <v>0</v>
@@ -3148,13 +3148,13 @@
         <v>299</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="71.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <v>99</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>305</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" s="2" t="n">
         <v>2</v>
@@ -3268,7 +3268,7 @@
         <v>317</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" s="2" t="n">
         <v>2</v>
@@ -3288,7 +3288,7 @@
         <v>320</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" s="2" t="n">
         <v>2</v>
@@ -3308,7 +3308,7 @@
         <v>323</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107" s="2" t="n">
         <v>3</v>
@@ -3334,7 +3334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="327.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="370.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
         <v>108</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>329</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109" s="2" t="n">
         <v>3</v>
@@ -3368,7 +3368,7 @@
         <v>332</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110" s="2" t="n">
         <v>3</v>
